--- a/machines.xlsx
+++ b/machines.xlsx
@@ -1,71 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Machines"/>
+    <sheet name="Machines" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Machine Names</t>
-  </si>
-  <si>
-    <t>Станок1</t>
-  </si>
-  <si>
-    <t>Станок2</t>
-  </si>
-  <si>
-    <t>Станок3</t>
-  </si>
-  <si>
-    <t>Станок4</t>
-  </si>
-  <si>
-    <t>Станок5</t>
-  </si>
-  <si>
-    <t>Станок6</t>
-  </si>
-  <si>
-    <t>Станок7</t>
-  </si>
-  <si>
-    <t>Станок8</t>
-  </si>
-  <si>
-    <t>Станок9</t>
-  </si>
-  <si>
-    <t>Станок10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -110,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -151,71 +170,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -239,53 +256,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -295,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -304,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -313,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,10 +339,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -353,7 +371,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -366,12 +384,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -389,75 +408,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Machine Names</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Станок1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Станок2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Станок3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Станок4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Станок5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Станок6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Станок7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Станок8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Станок9</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Станок10</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>